--- a/biology/Histoire de la zoologie et de la botanique/Charles_Sutherland_Elton/Charles_Sutherland_Elton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Sutherland_Elton/Charles_Sutherland_Elton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Sutherland Elton est un écologue et un zoologiste britannique, né le 29 mars 1900 à Withington et mort le 1er mai 1991 à Oxford. Il a mené des recherches systématiques sur la dynamique des populations animales et précisé les mécanismes régissant la chaîne trophique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son père, Oliver Elton (1861-1945), est professeur de littérature anglaise à l’université de Liverpool. Il se marie en décembre 1928 avec Rose Montagne. Il se remarie quelques années plus tard avec Joy Scovelle. Il fait ses études à Liverpool mais il doit les interrompre durant la Première Guerre mondiale. À la fin de celle-ci, il reprend ses études à Oxford où il suit les cours de Sir Julian Huxley (1887-1975) et de Edwin Stephen Goodrich (1868-1946).
 En 1921, il se joint à une expédition dans le Spitzberg organisée par l’université d'Oxford sous la direction de Sir Frederick George Binney (1900-1972). L’expédition compte, outre Julian Huxley, également Sir Alexander Carr-Saunders (1886-1966), Howard Walter Florey (1898-1968) et Noel Ewart Odell (1890-1987). Elton aura l’occasion de retourner deux fois dans cette région.
